--- a/biology/Zoologie/Ecitonini/Ecitonini.xlsx
+++ b/biology/Zoologie/Ecitonini/Ecitonini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ecitonini sont une tribu de fourmis d’Amérique contenant la plupart des espèces de fourmis légionnaires que l'on retrouve dans les régions tropicales et notamment en Amérique centrale et dans le Sud des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Ecitonini a été créée en 1893 par l'entomologiste suisse Auguste Forel (1848-1931).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Taxonomicon  (13 avril 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Taxonomicon  (13 avril 2022) :
 genre Eciton Latreille, 1804
 genre Labidus Jurine, 1807
 genre Neivamyrmex Borgmeier, 1940
